--- a/sessions/data/Part_I/SIAF/districts/ MUNICIPALIDAD DISTRITAL DE BALSAS/ MUNICIPALIDAD DISTRITAL DE BALSAS.xlsx
+++ b/sessions/data/Part_I/SIAF/districts/ MUNICIPALIDAD DISTRITAL DE BALSAS/ MUNICIPALIDAD DISTRITAL DE BALSAS.xlsx
@@ -527,7 +527,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>15500</v>
+        <v>30500</v>
       </c>
       <c r="E3" t="n">
         <v>15000</v>
@@ -545,7 +545,7 @@
         <v>15000</v>
       </c>
       <c r="J3" t="n">
-        <v>96.8</v>
+        <v>49.2</v>
       </c>
     </row>
     <row r="4">
@@ -635,7 +635,7 @@
         <v>316963</v>
       </c>
       <c r="F6" t="n">
-        <v>72900</v>
+        <v>279079</v>
       </c>
       <c r="G6" t="n">
         <v>72900</v>
